--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_411__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_411__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5432,13 +5432,13 @@
                   <c:v>26.43878173828125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.16107559204102</c:v>
+                  <c:v>53.16107940673828</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96.66929626464844</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.21226501464844</c:v>
+                  <c:v>98.2122802734375</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>89.12287902832031</c:v>
@@ -5459,19 +5459,19 @@
                   <c:v>79.75761413574219</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.76657867431641</c:v>
+                  <c:v>40.76658248901367</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>71.53523254394531</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.46929168701172</c:v>
+                  <c:v>72.46928405761719</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>12.96803951263428</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>98.62480163574219</c:v>
+                  <c:v>98.62481689453125</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>77.301513671875</c:v>
@@ -5480,7 +5480,7 @@
                   <c:v>58.9284782409668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63.04483413696289</c:v>
+                  <c:v>63.04482650756836</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>59.19891357421875</c:v>
@@ -5495,13 +5495,13 @@
                   <c:v>96.18867492675781</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>89.574951171875</c:v>
+                  <c:v>89.57493591308594</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>97.27287292480469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>65.88796997070312</c:v>
+                  <c:v>65.88798522949219</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>98.20365905761719</c:v>
@@ -5510,10 +5510,10 @@
                   <c:v>54.3922233581543</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>80.26263427734375</c:v>
+                  <c:v>80.26261901855469</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>97.38955688476562</c:v>
+                  <c:v>97.38957214355469</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>84.96165466308594</c:v>
@@ -5543,25 +5543,25 @@
                   <c:v>87.51614379882812</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83.57612609863281</c:v>
+                  <c:v>83.57611083984375</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>79.42283630371094</c:v>
+                  <c:v>79.4228515625</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>90.27728271484375</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>96.75172424316406</c:v>
+                  <c:v>96.751708984375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>82.33786010742188</c:v>
+                  <c:v>82.33784484863281</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>97.43675231933594</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>97.41139221191406</c:v>
+                  <c:v>97.411376953125</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>82.92866516113281</c:v>
@@ -5579,7 +5579,7 @@
                   <c:v>88.34294128417969</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55.61442565917969</c:v>
+                  <c:v>55.61443328857422</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>95.7999267578125</c:v>
@@ -5612,7 +5612,7 @@
                   <c:v>86.41032409667969</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>95.55918884277344</c:v>
+                  <c:v>95.5592041015625</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>88.13528442382812</c:v>
@@ -5627,7 +5627,7 @@
                   <c:v>82.8883056640625</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>67.47756195068359</c:v>
+                  <c:v>67.47756958007812</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>80.45343017578125</c:v>
@@ -5642,7 +5642,7 @@
                   <c:v>28.64744186401367</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>65.85551452636719</c:v>
+                  <c:v>65.85552215576172</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>85.95054626464844</c:v>
@@ -5657,13 +5657,13 @@
                   <c:v>61.90055847167969</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>54.94018936157227</c:v>
+                  <c:v>54.9401969909668</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>97.82000732421875</c:v>
+                  <c:v>97.82002258300781</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>97.82527160644531</c:v>
+                  <c:v>97.82528686523438</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>85.49253845214844</c:v>
@@ -5672,7 +5672,7 @@
                   <c:v>60.16161727905273</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>90.94416809082031</c:v>
+                  <c:v>90.94418334960938</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>96.88949584960938</c:v>
@@ -5681,7 +5681,7 @@
                   <c:v>81.9796142578125</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>79.23995971679688</c:v>
+                  <c:v>79.23994445800781</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>64.82041931152344</c:v>
@@ -6539,7 +6539,7 @@
         <v>58.4074</v>
       </c>
       <c r="F7">
-        <v>53.16107559204102</v>
+        <v>53.16107940673828</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6591,7 +6591,7 @@
         <v>97.65470000000001</v>
       </c>
       <c r="F9">
-        <v>98.21226501464844</v>
+        <v>98.2122802734375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>40.3385</v>
       </c>
       <c r="F16">
-        <v>40.76657867431641</v>
+        <v>40.76658248901367</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>72.99850000000001</v>
       </c>
       <c r="F18">
-        <v>72.46929168701172</v>
+        <v>72.46928405761719</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>97.7124</v>
       </c>
       <c r="F20">
-        <v>98.62480163574219</v>
+        <v>98.62481689453125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>63.04483413696289</v>
+        <v>63.04482650756836</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>89.6236</v>
       </c>
       <c r="F28">
-        <v>89.574951171875</v>
+        <v>89.57493591308594</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>67.24550000000001</v>
       </c>
       <c r="F30">
-        <v>65.88796997070312</v>
+        <v>65.88798522949219</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>80.55459999999999</v>
       </c>
       <c r="F33">
-        <v>80.26263427734375</v>
+        <v>80.26261901855469</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>97.2676</v>
       </c>
       <c r="F34">
-        <v>97.38955688476562</v>
+        <v>97.38957214355469</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>84.637</v>
       </c>
       <c r="F44">
-        <v>83.57612609863281</v>
+        <v>83.57611083984375</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>78.7594</v>
       </c>
       <c r="F45">
-        <v>79.42283630371094</v>
+        <v>79.4228515625</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>96.2886</v>
       </c>
       <c r="F47">
-        <v>96.75172424316406</v>
+        <v>96.751708984375</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>82.63800000000001</v>
       </c>
       <c r="F48">
-        <v>82.33786010742188</v>
+        <v>82.33784484863281</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>97.4067</v>
       </c>
       <c r="F50">
-        <v>97.41139221191406</v>
+        <v>97.411376953125</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>56.35</v>
       </c>
       <c r="F56">
-        <v>55.61442565917969</v>
+        <v>55.61443328857422</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>95.8539</v>
       </c>
       <c r="F67">
-        <v>95.55918884277344</v>
+        <v>95.5592041015625</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>67.25879999999999</v>
       </c>
       <c r="F72">
-        <v>67.47756195068359</v>
+        <v>67.47756958007812</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>64.7646</v>
       </c>
       <c r="F77">
-        <v>65.85551452636719</v>
+        <v>65.85552215576172</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>54.94018936157227</v>
+        <v>54.9401969909668</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>97.51990000000001</v>
       </c>
       <c r="F83">
-        <v>97.82000732421875</v>
+        <v>97.82002258300781</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.5826</v>
       </c>
       <c r="F84">
-        <v>97.82527160644531</v>
+        <v>97.82528686523438</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>92.9709</v>
       </c>
       <c r="F87">
-        <v>90.94416809082031</v>
+        <v>90.94418334960938</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>81.3472</v>
       </c>
       <c r="F90">
-        <v>79.23995971679688</v>
+        <v>79.23994445800781</v>
       </c>
     </row>
     <row r="91" spans="1:6">
